--- a/semesterTask2/tests.xlsx
+++ b/semesterTask2/tests.xlsx
@@ -987,154 +987,154 @@
                   <c:v>5032587</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>10000041</c:v>
+                  <c:v>7000041</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>10000130</c:v>
+                  <c:v>7000254</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>10000595</c:v>
+                  <c:v>7000264</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>10001373</c:v>
+                  <c:v>7000566</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>10003090</c:v>
+                  <c:v>7001204</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>10004540</c:v>
+                  <c:v>7001260</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>10004964</c:v>
+                  <c:v>7001685</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>10005579</c:v>
+                  <c:v>7003037</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>10006122</c:v>
+                  <c:v>7003320</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>10006222</c:v>
+                  <c:v>7003819</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>10007495</c:v>
+                  <c:v>7004063</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>10007722</c:v>
+                  <c:v>7004886</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>10007799</c:v>
+                  <c:v>7006690</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>10008280</c:v>
+                  <c:v>7008085</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>10010449</c:v>
+                  <c:v>7008936</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>10011278</c:v>
+                  <c:v>7008980</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>10011308</c:v>
+                  <c:v>7009075</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>10012976</c:v>
+                  <c:v>7009679</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>10013407</c:v>
+                  <c:v>7011818</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>10013502</c:v>
+                  <c:v>7012504</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>10013780</c:v>
+                  <c:v>7013072</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>10016465</c:v>
+                  <c:v>7013395</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>10016725</c:v>
+                  <c:v>7014806</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>10016783</c:v>
+                  <c:v>7015221</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>10016829</c:v>
+                  <c:v>7016698</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>10018006</c:v>
+                  <c:v>7016908</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>10018724</c:v>
+                  <c:v>7018189</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>10019103</c:v>
+                  <c:v>7019628</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>10019288</c:v>
+                  <c:v>7019929</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>10019376</c:v>
+                  <c:v>7019957</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>10020206</c:v>
+                  <c:v>7020102</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>10020835</c:v>
+                  <c:v>7020862</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>10021444</c:v>
+                  <c:v>7021164</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>10021461</c:v>
+                  <c:v>7021392</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>10021937</c:v>
+                  <c:v>7022245</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>10022112</c:v>
+                  <c:v>7022894</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>10022294</c:v>
+                  <c:v>7023474</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>10022484</c:v>
+                  <c:v>7023504</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>10022784</c:v>
+                  <c:v>7023693</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>10023063</c:v>
+                  <c:v>7023938</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>10023407</c:v>
+                  <c:v>7024492</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>10024967</c:v>
+                  <c:v>7024785</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>10027954</c:v>
+                  <c:v>7025354</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>10029235</c:v>
+                  <c:v>7025944</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>10029325</c:v>
+                  <c:v>7028425</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>10029373</c:v>
+                  <c:v>7029629</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>10030320</c:v>
+                  <c:v>7030104</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>10030846</c:v>
+                  <c:v>7030905</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>10031788</c:v>
+                  <c:v>7031375</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>10032219</c:v>
+                  <c:v>7032448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,179 +2046,179 @@
                   <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="300">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="348">
                   <c:v>359</c:v>
                 </c:pt>
-                <c:pt idx="301">
+                <c:pt idx="349">
                   <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>438</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="127062016"/>
-        <c:axId val="127063552"/>
+        <c:axId val="103707392"/>
+        <c:axId val="103708928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127062016"/>
+        <c:axId val="103707392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127063552"/>
+        <c:crossAx val="103708928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127063552"/>
+        <c:axId val="103708928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -2228,7 +2228,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127062016"/>
+        <c:crossAx val="103707392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -2242,7 +2242,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2568,11 +2568,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B351"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -4986,407 +4984,807 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302">
-        <v>10000041</v>
+        <v>7000041</v>
       </c>
       <c r="B302">
-        <v>359</v>
+        <v>254</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303">
-        <v>10000130</v>
+        <v>7000254</v>
       </c>
       <c r="B303">
-        <v>359</v>
+        <v>254</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304">
-        <v>10000595</v>
+        <v>7000264</v>
       </c>
       <c r="B304">
-        <v>359</v>
+        <v>259</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305">
-        <v>10001373</v>
+        <v>7000566</v>
       </c>
       <c r="B305">
-        <v>359</v>
+        <v>260</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306">
-        <v>10003090</v>
+        <v>7001204</v>
       </c>
       <c r="B306">
-        <v>360</v>
+        <v>262</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307">
-        <v>10004540</v>
+        <v>7001260</v>
       </c>
       <c r="B307">
-        <v>360</v>
+        <v>263</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308">
-        <v>10004964</v>
+        <v>7001685</v>
       </c>
       <c r="B308">
-        <v>361</v>
+        <v>264</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309">
-        <v>10005579</v>
+        <v>7003037</v>
       </c>
       <c r="B309">
-        <v>361</v>
+        <v>265</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310">
-        <v>10006122</v>
+        <v>7003320</v>
       </c>
       <c r="B310">
-        <v>361</v>
+        <v>267</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311">
-        <v>10006222</v>
+        <v>7003819</v>
       </c>
       <c r="B311">
-        <v>362</v>
+        <v>272</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312">
-        <v>10007495</v>
+        <v>7004063</v>
       </c>
       <c r="B312">
-        <v>362</v>
+        <v>273</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313">
-        <v>10007722</v>
+        <v>7004886</v>
       </c>
       <c r="B313">
-        <v>363</v>
+        <v>274</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314">
-        <v>10007799</v>
+        <v>7006690</v>
       </c>
       <c r="B314">
-        <v>363</v>
+        <v>275</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315">
-        <v>10008280</v>
+        <v>7008085</v>
       </c>
       <c r="B315">
-        <v>363</v>
+        <v>277</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316">
-        <v>10010449</v>
+        <v>7008936</v>
       </c>
       <c r="B316">
-        <v>364</v>
+        <v>277</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317">
-        <v>10011278</v>
+        <v>7008980</v>
       </c>
       <c r="B317">
-        <v>366</v>
+        <v>278</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318">
-        <v>10011308</v>
+        <v>7009075</v>
       </c>
       <c r="B318">
-        <v>366</v>
+        <v>279</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319">
-        <v>10012976</v>
+        <v>7009679</v>
       </c>
       <c r="B319">
-        <v>367</v>
+        <v>280</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320">
-        <v>10013407</v>
+        <v>7011818</v>
       </c>
       <c r="B320">
-        <v>367</v>
+        <v>281</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321">
-        <v>10013502</v>
+        <v>7012504</v>
       </c>
       <c r="B321">
-        <v>368</v>
+        <v>281</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322">
-        <v>10013780</v>
+        <v>7013072</v>
       </c>
       <c r="B322">
-        <v>368</v>
+        <v>282</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323">
-        <v>10016465</v>
+        <v>7013395</v>
       </c>
       <c r="B323">
-        <v>368</v>
+        <v>283</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324">
-        <v>10016725</v>
+        <v>7014806</v>
       </c>
       <c r="B324">
-        <v>368</v>
+        <v>284</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325">
-        <v>10016783</v>
+        <v>7015221</v>
       </c>
       <c r="B325">
-        <v>369</v>
+        <v>285</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326">
-        <v>10016829</v>
+        <v>7016698</v>
       </c>
       <c r="B326">
-        <v>369</v>
+        <v>287</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>10018006</v>
+        <v>7016908</v>
       </c>
       <c r="B327">
-        <v>370</v>
+        <v>288</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328">
-        <v>10018724</v>
+        <v>7018189</v>
       </c>
       <c r="B328">
-        <v>372</v>
+        <v>289</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329">
-        <v>10019103</v>
+        <v>7019628</v>
       </c>
       <c r="B329">
-        <v>372</v>
+        <v>289</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330">
-        <v>10019288</v>
+        <v>7019929</v>
       </c>
       <c r="B330">
-        <v>373</v>
+        <v>291</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331">
-        <v>10019376</v>
+        <v>7019957</v>
       </c>
       <c r="B331">
-        <v>374</v>
+        <v>291</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332">
-        <v>10020206</v>
+        <v>7020102</v>
       </c>
       <c r="B332">
-        <v>376</v>
+        <v>293</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333">
-        <v>10020835</v>
+        <v>7020862</v>
       </c>
       <c r="B333">
-        <v>376</v>
+        <v>293</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334">
-        <v>10021444</v>
+        <v>7021164</v>
       </c>
       <c r="B334">
-        <v>378</v>
+        <v>294</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335">
-        <v>10021461</v>
+        <v>7021392</v>
       </c>
       <c r="B335">
-        <v>378</v>
+        <v>294</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>10021937</v>
+        <v>7022245</v>
       </c>
       <c r="B336">
-        <v>379</v>
+        <v>294</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337">
-        <v>10022112</v>
+        <v>7022894</v>
       </c>
       <c r="B337">
-        <v>379</v>
+        <v>297</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338">
-        <v>10022294</v>
+        <v>7023474</v>
       </c>
       <c r="B338">
-        <v>379</v>
+        <v>297</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339">
-        <v>10022484</v>
+        <v>7023504</v>
       </c>
       <c r="B339">
-        <v>380</v>
+        <v>300</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340">
-        <v>10022784</v>
+        <v>7023693</v>
       </c>
       <c r="B340">
-        <v>381</v>
+        <v>300</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341">
-        <v>10023063</v>
+        <v>7023938</v>
       </c>
       <c r="B341">
-        <v>383</v>
+        <v>302</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342">
-        <v>10023407</v>
+        <v>7024492</v>
       </c>
       <c r="B342">
-        <v>387</v>
+        <v>303</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343">
-        <v>10024967</v>
+        <v>7024785</v>
       </c>
       <c r="B343">
-        <v>390</v>
+        <v>305</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344">
-        <v>10027954</v>
+        <v>7025354</v>
       </c>
       <c r="B344">
-        <v>391</v>
+        <v>322</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345">
-        <v>10029235</v>
+        <v>7025944</v>
       </c>
       <c r="B345">
-        <v>394</v>
+        <v>331</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346">
-        <v>10029325</v>
+        <v>7028425</v>
       </c>
       <c r="B346">
-        <v>396</v>
+        <v>332</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>10029373</v>
+        <v>7029629</v>
       </c>
       <c r="B347">
-        <v>420</v>
+        <v>335</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348">
-        <v>10030320</v>
+        <v>7030104</v>
       </c>
       <c r="B348">
-        <v>423</v>
+        <v>336</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349">
-        <v>10030846</v>
+        <v>7030905</v>
       </c>
       <c r="B349">
-        <v>434</v>
+        <v>342</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350">
-        <v>10031788</v>
+        <v>7031375</v>
       </c>
       <c r="B350">
-        <v>438</v>
+        <v>359</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351">
+        <v>7032448</v>
+      </c>
+      <c r="B351">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352">
+        <v>10000041</v>
+      </c>
+      <c r="B352">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353">
+        <v>10000130</v>
+      </c>
+      <c r="B353">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354">
+        <v>10000595</v>
+      </c>
+      <c r="B354">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355">
+        <v>10001373</v>
+      </c>
+      <c r="B355">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356">
+        <v>10003090</v>
+      </c>
+      <c r="B356">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357">
+        <v>10004540</v>
+      </c>
+      <c r="B357">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358">
+        <v>10004964</v>
+      </c>
+      <c r="B358">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359">
+        <v>10005579</v>
+      </c>
+      <c r="B359">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360">
+        <v>10006122</v>
+      </c>
+      <c r="B360">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361">
+        <v>10006222</v>
+      </c>
+      <c r="B361">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362">
+        <v>10007495</v>
+      </c>
+      <c r="B362">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363">
+        <v>10007722</v>
+      </c>
+      <c r="B363">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364">
+        <v>10007799</v>
+      </c>
+      <c r="B364">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365">
+        <v>10008280</v>
+      </c>
+      <c r="B365">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366">
+        <v>10010449</v>
+      </c>
+      <c r="B366">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367">
+        <v>10011278</v>
+      </c>
+      <c r="B367">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368">
+        <v>10011308</v>
+      </c>
+      <c r="B368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369">
+        <v>10012976</v>
+      </c>
+      <c r="B369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370">
+        <v>10013407</v>
+      </c>
+      <c r="B370">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371">
+        <v>10013502</v>
+      </c>
+      <c r="B371">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372">
+        <v>10013780</v>
+      </c>
+      <c r="B372">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373">
+        <v>10016465</v>
+      </c>
+      <c r="B373">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374">
+        <v>10016725</v>
+      </c>
+      <c r="B374">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375">
+        <v>10016783</v>
+      </c>
+      <c r="B375">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376">
+        <v>10016829</v>
+      </c>
+      <c r="B376">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377">
+        <v>10018006</v>
+      </c>
+      <c r="B377">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378">
+        <v>10018724</v>
+      </c>
+      <c r="B378">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379">
+        <v>10019103</v>
+      </c>
+      <c r="B379">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380">
+        <v>10019288</v>
+      </c>
+      <c r="B380">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381">
+        <v>10019376</v>
+      </c>
+      <c r="B381">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382">
+        <v>10020206</v>
+      </c>
+      <c r="B382">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383">
+        <v>10020835</v>
+      </c>
+      <c r="B383">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384">
+        <v>10021444</v>
+      </c>
+      <c r="B384">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385">
+        <v>10021461</v>
+      </c>
+      <c r="B385">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386">
+        <v>10021937</v>
+      </c>
+      <c r="B386">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387">
+        <v>10022112</v>
+      </c>
+      <c r="B387">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388">
+        <v>10022294</v>
+      </c>
+      <c r="B388">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389">
+        <v>10022484</v>
+      </c>
+      <c r="B389">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390">
+        <v>10022784</v>
+      </c>
+      <c r="B390">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391">
+        <v>10023063</v>
+      </c>
+      <c r="B391">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392">
+        <v>10023407</v>
+      </c>
+      <c r="B392">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393">
+        <v>10024967</v>
+      </c>
+      <c r="B393">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394">
+        <v>10027954</v>
+      </c>
+      <c r="B394">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395">
+        <v>10029235</v>
+      </c>
+      <c r="B395">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396">
+        <v>10029325</v>
+      </c>
+      <c r="B396">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397">
+        <v>10029373</v>
+      </c>
+      <c r="B397">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398">
+        <v>10030320</v>
+      </c>
+      <c r="B398">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399">
+        <v>10030846</v>
+      </c>
+      <c r="B399">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400">
+        <v>10031788</v>
+      </c>
+      <c r="B400">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401">
         <v>10032219</v>
       </c>
-      <c r="B351">
+      <c r="B401">
         <v>445</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B351">
-    <sortCondition ref="B2"/>
+  <sortState ref="B2:B401">
+    <sortCondition ref="B401"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
